--- a/medicine/Psychotrope/Bralirwa/Bralirwa.xlsx
+++ b/medicine/Psychotrope/Bralirwa/Bralirwa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bralirwa, Brasseries et Limonaderies du Rwanda, est la plus importante entreprise brassicole du Rwanda. C'est une filiale de Heineken, établie à Gisenyi au bord du lac Kivu.
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première usine de Bralirwa se situe à Gisenyi, elle commence la production en 1959[1]. En 1971, Heineken entre à hauteur de 70% dans le capital de Bralirwa, et contribue à moderniser ses techniques de production comme le passage du soutirage par contre-pression d'air à celui au CO2[1].
-Une nouvelle usine ouvre à Kigali en 1974 en partenariat avec The Coca-Cola Company, ce qui permet à Bralirwa de diversifier ses produits[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première usine de Bralirwa se situe à Gisenyi, elle commence la production en 1959. En 1971, Heineken entre à hauteur de 70% dans le capital de Bralirwa, et contribue à moderniser ses techniques de production comme le passage du soutirage par contre-pression d'air à celui au CO2.
+Une nouvelle usine ouvre à Kigali en 1974 en partenariat avec The Coca-Cola Company, ce qui permet à Bralirwa de diversifier ses produits.
 Au moment du génocide des Tutsi en 1994, les usines de Bralirwa sont endommagées.
-En 2011, Bralirwa réalise un bénéfice net de 24 millions de dollars avec une augmentation de 16,3% des ventes[2].
-Jusqu'en 2014, la majorité des exportations de Bralirwa se font vers la République démocratique du Congo[3].
+En 2011, Bralirwa réalise un bénéfice net de 24 millions de dollars avec une augmentation de 16,3% des ventes.
+Jusqu'en 2014, la majorité des exportations de Bralirwa se font vers la République démocratique du Congo.
 </t>
         </is>
       </c>
@@ -547,12 +561,14 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bralirwa fabrique et commercialise des bières et des boissons gazeuses. Elle produit notamment dans ses usines[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bralirwa fabrique et commercialise des bières et des boissons gazeuses. Elle produit notamment dans ses usines :
 Primus
 Mützig
-Guinness (stoppé en novembre 2013[4])
+Guinness (stoppé en novembre 2013)
 Amstel
 Heineken</t>
         </is>
@@ -582,9 +598,11 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le directeur général est Merid Demissie, en replacement de Victor Madiela qui a dirigé la société de 2016 à 2018[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le directeur général est Merid Demissie, en replacement de Victor Madiela qui a dirigé la société de 2016 à 2018.</t>
         </is>
       </c>
     </row>
